--- a/biology/Botanique/Indigofera_hochstetteri/Indigofera_hochstetteri.xlsx
+++ b/biology/Botanique/Indigofera_hochstetteri/Indigofera_hochstetteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera hochstetteri est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera hochstetteri est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
 Son épithète spécifique hochstetteri rend hommage au botaniste allemand Christian Ferdinand Friedrich Hochstetter.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 juin 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 juin 2020) :
 sous-espèce Indigofera hochstetteri subsp. streyana
-Selon The Plant List            (17 juin 2020)[1] :
+Selon The Plant List            (17 juin 2020) :
 sous-espèce Indigofera hochstetteri subsp. streyana (Merxm.) A.Schreib.</t>
         </is>
       </c>
